--- a/Bug Tracker/Bugs_Report.xlsx
+++ b/Bug Tracker/Bugs_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEPI\Graduation Project\Bug Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDDF6D2-C7A2-4F16-9A5F-EBE09C4B374E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6EA222-CDE5-43D9-9EA2-A15C7CA21F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,8 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
